--- a/test/fixture/snapshot/cli/sort-format/basic/premodern/premodern-uncommon.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/basic/premodern/premodern-uncommon.xlsx
@@ -48,7 +48,7 @@
     <comment ref="C4" authorId="0">
       <text>
         <r>
-          <t>Group: external</t>
+          <t>Group: decks</t>
         </r>
       </text>
     </comment>
@@ -299,13 +299,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
-      <text>
-        <r>
-          <t>Group: external</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="D6" authorId="0">
       <text>
         <r>
@@ -331,6 +324,13 @@
         </r>
       </text>
     </comment>
+    <comment ref="C7" authorId="0">
+      <text>
+        <r>
+          <t>Group: decks</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D7" authorId="0">
       <text>
         <r>
@@ -342,11 +342,36 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">As an additional cost to cast this spell, discard X cards.
+Look at target opponent's hand and choose X cards from it. That player discards those cards.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 1× 𝗫 generic
+➤ 1 generic
+➤ 1 black</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
           <t>Exile target nonblack creature. Search its controller's graveyard, hand, and library for all cards with the same name as that creature and exile them. Then that player shuffles.</t>
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 2 generic
@@ -589,7 +614,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="157">
   <si>
     <t>Premodern (Uncommon) - White</t>
   </si>
@@ -835,6 +860,9 @@
   </si>
   <si>
     <t>Abandon Hope</t>
+  </si>
+  <si>
+    <t>premodern-coalesce</t>
   </si>
   <si>
     <t>Sorcery</t>
@@ -1109,7 +1137,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3D8F2"/>
+        <fgColor rgb="FFD6F1F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1153,10 +1181,10 @@
         <color rgb="FF999999"/>
       </right>
       <top style="thin">
-        <color rgb="FF8A6BB8"/>
+        <color rgb="FF4FA3B8"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF8A6BB8"/>
+        <color rgb="FF4FA3B8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1239,6 +1267,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8505,7 +8539,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N207"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8516,7 +8550,8 @@
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="17" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
     <col min="7" max="7" width="21" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -8685,13 +8720,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>30</v>
@@ -8700,10 +8735,10 @@
         <v>31</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J5" s="13">
         <v>2</v>
@@ -8715,115 +8750,143 @@
         <v>73</v>
       </c>
       <c r="M5" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="J6" s="11">
+        <v>2</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="N6" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B7" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="9">
+        <v>2</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="9">
-        <v>2</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="E8" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4</v>
+      </c>
+      <c r="K8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="17">
-        <v>1</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" s="17">
-        <v>4</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="M8" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
@@ -12009,6 +12072,22 @@
       <c r="M207" s="1"/>
       <c r="N207" s="1"/>
     </row>
+    <row r="208" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:N1"/>
@@ -12019,10 +12098,11 @@
     <hyperlink ref="N5" r:id="rId3"/>
     <hyperlink ref="N6" r:id="rId4"/>
     <hyperlink ref="N7" r:id="rId5"/>
+    <hyperlink ref="N8" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-  <legacyDrawing r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -12053,7 +12133,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12115,7 +12195,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" s="17">
         <v>2</v>
@@ -12127,34 +12207,34 @@
         <v>17</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J3" s="17">
         <v>4</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -15397,7 +15477,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -15459,7 +15539,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="7">
         <v>3</v>
@@ -15471,7 +15551,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>30</v>
@@ -15480,69 +15560,69 @@
         <v>31</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J3" s="7">
         <v>5</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M3" s="7" t="s">
         <v>24</v>
       </c>
       <c r="N3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="21">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="21">
+        <v>4</v>
+      </c>
+      <c r="K4" s="21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="J4" s="19">
-        <v>4</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="M4" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>116</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -18785,7 +18865,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18847,7 +18927,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7">
         <v>4</v>
@@ -18859,78 +18939,78 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J3" s="7">
         <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="H4" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="J4" s="19">
+      <c r="I4" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="J4" s="21">
         <v>3</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="L4" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="M4" s="19" t="s">
+      <c r="K4" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>134</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -22173,7 +22253,7 @@
   <sheetData>
     <row r="1" ht="22" customHeight="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22235,7 +22315,7 @@
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -22244,42 +22324,42 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B4" s="11">
         <v>1</v>
@@ -22288,10 +22368,10 @@
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>69</v>
@@ -22300,69 +22380,69 @@
         <v>70</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J4" s="11">
         <v>4</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>43</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="21">
+      <c r="A5" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="23">
         <v>1</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="E5" s="21" t="s">
+      <c r="D5" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="E5" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="J5" s="21">
+      <c r="I5" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="23">
         <v>3</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="N5" s="21" t="s">
+      <c r="K5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>155</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
